--- a/Ligas/Liga_argentina_2025.xlsx
+++ b/Ligas/Liga_argentina_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S300"/>
+  <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,16 @@
           <t>Resultado</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Local ().1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Visita ().1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -596,6 +606,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -663,6 +675,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -730,6 +744,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -797,6 +813,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -864,6 +882,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -931,6 +951,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -998,6 +1020,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1065,6 +1089,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1132,6 +1158,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1199,6 +1227,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1266,6 +1296,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1333,6 +1365,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1400,6 +1434,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1467,6 +1503,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1534,6 +1572,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1601,6 +1641,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1668,6 +1710,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1735,6 +1779,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1802,6 +1848,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1869,6 +1917,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1936,6 +1986,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2003,6 +2055,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2070,6 +2124,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2137,6 +2193,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2204,6 +2262,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2271,6 +2331,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2338,6 +2400,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2405,6 +2469,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2472,6 +2538,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2539,6 +2607,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2606,6 +2676,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2673,6 +2745,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2740,6 +2814,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2807,6 +2883,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2874,6 +2952,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2941,6 +3021,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3008,6 +3090,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3075,6 +3159,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3142,6 +3228,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3209,6 +3297,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3276,6 +3366,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3343,6 +3435,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3410,6 +3504,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3477,6 +3573,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3544,6 +3642,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3611,6 +3711,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3678,6 +3780,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3745,6 +3849,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3812,6 +3918,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3879,6 +3987,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3946,6 +4056,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4013,6 +4125,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4080,6 +4194,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4147,6 +4263,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4214,6 +4332,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4281,6 +4401,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4348,6 +4470,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4415,6 +4539,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4482,6 +4608,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4549,6 +4677,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4616,6 +4746,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4683,6 +4815,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4750,6 +4884,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4817,6 +4953,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4884,6 +5022,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4951,6 +5091,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5018,6 +5160,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5085,6 +5229,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5152,6 +5298,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5219,6 +5367,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5286,6 +5436,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5353,6 +5505,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5420,6 +5574,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5487,6 +5643,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5554,6 +5712,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5621,6 +5781,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5688,6 +5850,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5755,6 +5919,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5822,6 +5988,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5889,6 +6057,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5956,6 +6126,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6023,6 +6195,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6090,6 +6264,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6157,6 +6333,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6224,6 +6402,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6291,6 +6471,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6358,6 +6540,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6425,6 +6609,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6492,6 +6678,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6559,6 +6747,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6626,6 +6816,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6693,6 +6885,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6760,6 +6954,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6827,6 +7023,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6894,6 +7092,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6961,6 +7161,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7028,6 +7230,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7095,6 +7299,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7162,6 +7368,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7229,6 +7437,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7296,6 +7506,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7363,6 +7575,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7430,6 +7644,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7497,6 +7713,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7564,6 +7782,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7631,6 +7851,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7698,6 +7920,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7765,6 +7989,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7832,6 +8058,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7899,6 +8127,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7966,6 +8196,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8033,6 +8265,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8100,6 +8334,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8167,6 +8403,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8234,6 +8472,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8301,6 +8541,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8368,6 +8610,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8435,6 +8679,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8502,6 +8748,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8569,6 +8817,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8636,6 +8886,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8703,6 +8955,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8770,6 +9024,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8837,6 +9093,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8904,6 +9162,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8971,6 +9231,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9038,6 +9300,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9105,6 +9369,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9172,6 +9438,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9239,6 +9507,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9306,6 +9576,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9373,6 +9645,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9440,6 +9714,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9507,6 +9783,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9574,6 +9852,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9641,6 +9921,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9708,6 +9990,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9775,6 +10059,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9842,6 +10128,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9909,6 +10197,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9976,6 +10266,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10043,6 +10335,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10110,6 +10404,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10177,6 +10473,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10244,6 +10542,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10311,6 +10611,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10378,6 +10680,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10445,6 +10749,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10512,6 +10818,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10579,6 +10887,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10646,6 +10956,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10713,6 +11025,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10780,6 +11094,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10847,6 +11163,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10914,6 +11232,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10981,6 +11301,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11048,6 +11370,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11115,6 +11439,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11182,6 +11508,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11249,6 +11577,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11316,6 +11646,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11383,6 +11715,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11450,6 +11784,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11517,6 +11853,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11584,6 +11922,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11651,6 +11991,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11718,6 +12060,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11785,6 +12129,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11852,6 +12198,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11919,6 +12267,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -11986,6 +12336,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12053,6 +12405,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12120,6 +12474,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12187,6 +12543,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12254,6 +12612,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -12321,6 +12681,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12388,6 +12750,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12455,6 +12819,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12522,6 +12888,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12589,6 +12957,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12656,6 +13026,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12723,6 +13095,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12790,6 +13164,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -12857,6 +13233,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12924,6 +13302,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -12991,6 +13371,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13058,6 +13440,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13125,6 +13509,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13192,6 +13578,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13259,6 +13647,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13326,6 +13716,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13393,6 +13785,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13460,6 +13854,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13527,6 +13923,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13594,6 +13992,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13661,6 +14061,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -13728,6 +14130,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -13795,6 +14199,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -13862,6 +14268,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -13929,6 +14337,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -13996,6 +14406,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -14063,6 +14475,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -14130,6 +14544,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -14197,6 +14613,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -14264,6 +14682,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -14331,6 +14751,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -14398,6 +14820,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -14465,6 +14889,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -14532,6 +14958,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -14599,6 +15027,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -14666,6 +15096,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -14733,6 +15165,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -14800,6 +15234,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -14867,6 +15303,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -14934,6 +15372,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -15001,6 +15441,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -15068,6 +15510,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -15135,6 +15579,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -15202,6 +15648,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -15269,6 +15717,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -15336,6 +15786,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -15403,6 +15855,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -15470,6 +15924,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -15537,6 +15993,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -15604,6 +16062,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -15671,6 +16131,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -15738,6 +16200,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -15805,6 +16269,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -15872,6 +16338,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -15939,6 +16407,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -16006,6 +16476,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T232" t="inlineStr"/>
+      <c r="U232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -16073,6 +16545,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -16140,6 +16614,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -16207,6 +16683,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -16274,6 +16752,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T236" t="inlineStr"/>
+      <c r="U236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -16341,6 +16821,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T237" t="inlineStr"/>
+      <c r="U237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -16408,6 +16890,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T238" t="inlineStr"/>
+      <c r="U238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -16475,6 +16959,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T239" t="inlineStr"/>
+      <c r="U239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -16542,6 +17028,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T240" t="inlineStr"/>
+      <c r="U240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -16609,6 +17097,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T241" t="inlineStr"/>
+      <c r="U241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -16676,6 +17166,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T242" t="inlineStr"/>
+      <c r="U242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -16743,6 +17235,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -16810,6 +17304,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T244" t="inlineStr"/>
+      <c r="U244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -16877,6 +17373,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -16944,6 +17442,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -17011,6 +17511,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T247" t="inlineStr"/>
+      <c r="U247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -17078,6 +17580,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -17145,6 +17649,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -17212,6 +17718,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T250" t="inlineStr"/>
+      <c r="U250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -17279,6 +17787,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T251" t="inlineStr"/>
+      <c r="U251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -17346,6 +17856,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T252" t="inlineStr"/>
+      <c r="U252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -17413,6 +17925,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T253" t="inlineStr"/>
+      <c r="U253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -17480,6 +17994,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T254" t="inlineStr"/>
+      <c r="U254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -17547,6 +18063,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T255" t="inlineStr"/>
+      <c r="U255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -17614,6 +18132,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T256" t="inlineStr"/>
+      <c r="U256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -17681,6 +18201,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T257" t="inlineStr"/>
+      <c r="U257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -17748,6 +18270,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T258" t="inlineStr"/>
+      <c r="U258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -17815,6 +18339,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T259" t="inlineStr"/>
+      <c r="U259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -17882,6 +18408,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T260" t="inlineStr"/>
+      <c r="U260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -17949,6 +18477,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T261" t="inlineStr"/>
+      <c r="U261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -18016,6 +18546,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T262" t="inlineStr"/>
+      <c r="U262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -18083,6 +18615,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T263" t="inlineStr"/>
+      <c r="U263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -18150,6 +18684,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T264" t="inlineStr"/>
+      <c r="U264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -18217,6 +18753,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T265" t="inlineStr"/>
+      <c r="U265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -18284,6 +18822,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T266" t="inlineStr"/>
+      <c r="U266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -18351,6 +18891,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T267" t="inlineStr"/>
+      <c r="U267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -18418,6 +18960,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T268" t="inlineStr"/>
+      <c r="U268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -18485,6 +19029,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T269" t="inlineStr"/>
+      <c r="U269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -18552,6 +19098,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T270" t="inlineStr"/>
+      <c r="U270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -18619,6 +19167,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T271" t="inlineStr"/>
+      <c r="U271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -18686,6 +19236,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T272" t="inlineStr"/>
+      <c r="U272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -18753,6 +19305,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T273" t="inlineStr"/>
+      <c r="U273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -18820,6 +19374,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T274" t="inlineStr"/>
+      <c r="U274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -18887,6 +19443,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T275" t="inlineStr"/>
+      <c r="U275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -18954,6 +19512,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T276" t="inlineStr"/>
+      <c r="U276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -19021,6 +19581,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T277" t="inlineStr"/>
+      <c r="U277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -19088,6 +19650,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T278" t="inlineStr"/>
+      <c r="U278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -19155,6 +19719,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T279" t="inlineStr"/>
+      <c r="U279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -19222,6 +19788,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T280" t="inlineStr"/>
+      <c r="U280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -19289,6 +19857,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T281" t="inlineStr"/>
+      <c r="U281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -19356,6 +19926,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T282" t="inlineStr"/>
+      <c r="U282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -19404,13 +19976,13 @@
         <v>0</v>
       </c>
       <c r="N283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O283" t="n">
         <v>0</v>
       </c>
       <c r="P283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q283" t="n">
         <v>53</v>
@@ -19423,6 +19995,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T283" t="inlineStr"/>
+      <c r="U283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -19490,6 +20064,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T284" t="inlineStr"/>
+      <c r="U284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -19557,6 +20133,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T285" t="inlineStr"/>
+      <c r="U285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -19624,6 +20202,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -19691,6 +20271,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T287" t="inlineStr"/>
+      <c r="U287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -19758,6 +20340,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T288" t="inlineStr"/>
+      <c r="U288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -19825,6 +20409,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T289" t="inlineStr"/>
+      <c r="U289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -19892,6 +20478,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T290" t="inlineStr"/>
+      <c r="U290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -19937,13 +20525,13 @@
         <v>0</v>
       </c>
       <c r="M291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N291" t="n">
         <v>0</v>
       </c>
       <c r="O291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P291" t="n">
         <v>0</v>
@@ -19959,6 +20547,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T291" t="inlineStr"/>
+      <c r="U291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -20026,6 +20616,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T292" t="inlineStr"/>
+      <c r="U292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -20093,6 +20685,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T293" t="inlineStr"/>
+      <c r="U293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -20160,6 +20754,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T294" t="inlineStr"/>
+      <c r="U294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -20227,6 +20823,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T295" t="inlineStr"/>
+      <c r="U295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -20272,13 +20870,13 @@
         <v>1</v>
       </c>
       <c r="M296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N296" t="n">
         <v>0</v>
       </c>
       <c r="O296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P296" t="n">
         <v>1</v>
@@ -20294,6 +20892,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T296" t="inlineStr"/>
+      <c r="U296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -20339,16 +20939,16 @@
         <v>0</v>
       </c>
       <c r="M297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N297" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q297" t="n">
         <v>62</v>
@@ -20361,6 +20961,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T297" t="inlineStr"/>
+      <c r="U297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -20409,13 +21011,13 @@
         <v>0</v>
       </c>
       <c r="N298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O298" t="n">
         <v>1</v>
       </c>
       <c r="P298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q298" t="n">
         <v>64</v>
@@ -20428,6 +21030,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T298" t="inlineStr"/>
+      <c r="U298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -20473,13 +21077,13 @@
         <v>0</v>
       </c>
       <c r="M299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N299" t="n">
         <v>0</v>
       </c>
       <c r="O299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P299" t="n">
         <v>0</v>
@@ -20495,6 +21099,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T299" t="inlineStr"/>
+      <c r="U299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -20540,13 +21146,13 @@
         <v>0</v>
       </c>
       <c r="M300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N300" t="n">
         <v>0</v>
       </c>
       <c r="O300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P300" t="n">
         <v>1</v>
@@ -20562,6 +21168,836 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T300" t="inlineStr"/>
+      <c r="U300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Huracan</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1374113</v>
+      </c>
+      <c r="G301" t="n">
+        <v>4</v>
+      </c>
+      <c r="H301" t="n">
+        <v>6</v>
+      </c>
+      <c r="I301" t="n">
+        <v>3</v>
+      </c>
+      <c r="J301" t="n">
+        <v>2</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>57</v>
+      </c>
+      <c r="R301" t="n">
+        <v>43</v>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr"/>
+      <c r="U301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Newells Old Boys</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Central Cordoba de Santiago</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1374108</v>
+      </c>
+      <c r="G302" t="n">
+        <v>2</v>
+      </c>
+      <c r="H302" t="n">
+        <v>10</v>
+      </c>
+      <c r="I302" t="n">
+        <v>2</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0</v>
+      </c>
+      <c r="O302" t="n">
+        <v>1</v>
+      </c>
+      <c r="P302" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>32</v>
+      </c>
+      <c r="R302" t="n">
+        <v>68</v>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr"/>
+      <c r="U302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Talleres Cordoba</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>1</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0</v>
+      </c>
+      <c r="F303" t="n">
+        <v>1374117</v>
+      </c>
+      <c r="G303" t="n">
+        <v>1</v>
+      </c>
+      <c r="H303" t="n">
+        <v>7</v>
+      </c>
+      <c r="I303" t="n">
+        <v>2</v>
+      </c>
+      <c r="J303" t="n">
+        <v>2</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>1</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0</v>
+      </c>
+      <c r="O303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>45</v>
+      </c>
+      <c r="R303" t="n">
+        <v>55</v>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T303" t="inlineStr"/>
+      <c r="U303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>San Martin S.J.</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Sarmiento Junin</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1374116</v>
+      </c>
+      <c r="G304" t="n">
+        <v>8</v>
+      </c>
+      <c r="H304" t="n">
+        <v>3</v>
+      </c>
+      <c r="I304" t="n">
+        <v>2</v>
+      </c>
+      <c r="J304" t="n">
+        <v>6</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>49</v>
+      </c>
+      <c r="R304" t="n">
+        <v>51</v>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T304" t="inlineStr"/>
+      <c r="U304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>1</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1374112</v>
+      </c>
+      <c r="G305" t="n">
+        <v>11</v>
+      </c>
+      <c r="H305" t="n">
+        <v>4</v>
+      </c>
+      <c r="I305" t="n">
+        <v>2</v>
+      </c>
+      <c r="J305" t="n">
+        <v>5</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0</v>
+      </c>
+      <c r="O305" t="n">
+        <v>1</v>
+      </c>
+      <c r="P305" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>52</v>
+      </c>
+      <c r="R305" t="n">
+        <v>48</v>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr"/>
+      <c r="U305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1374119</v>
+      </c>
+      <c r="G306" t="n">
+        <v>2</v>
+      </c>
+      <c r="H306" t="n">
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>5</v>
+      </c>
+      <c r="J306" t="n">
+        <v>2</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0</v>
+      </c>
+      <c r="O306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>44</v>
+      </c>
+      <c r="R306" t="n">
+        <v>56</v>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr"/>
+      <c r="U306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Belgrano Cordoba</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>2</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1374110</v>
+      </c>
+      <c r="G307" t="n">
+        <v>3</v>
+      </c>
+      <c r="H307" t="n">
+        <v>4</v>
+      </c>
+      <c r="I307" t="n">
+        <v>3</v>
+      </c>
+      <c r="J307" t="n">
+        <v>2</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>1</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0</v>
+      </c>
+      <c r="O307" t="n">
+        <v>1</v>
+      </c>
+      <c r="P307" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>55</v>
+      </c>
+      <c r="R307" t="n">
+        <v>45</v>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr"/>
+      <c r="U307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Atletico Tucuman</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1374115</v>
+      </c>
+      <c r="G308" t="n">
+        <v>3</v>
+      </c>
+      <c r="H308" t="n">
+        <v>3</v>
+      </c>
+      <c r="I308" t="n">
+        <v>3</v>
+      </c>
+      <c r="J308" t="n">
+        <v>5</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0</v>
+      </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>46</v>
+      </c>
+      <c r="R308" t="n">
+        <v>54</v>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr"/>
+      <c r="U308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>3</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1374109</v>
+      </c>
+      <c r="G309" t="n">
+        <v>5</v>
+      </c>
+      <c r="H309" t="n">
+        <v>5</v>
+      </c>
+      <c r="I309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>3</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>1</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0</v>
+      </c>
+      <c r="O309" t="n">
+        <v>2</v>
+      </c>
+      <c r="P309" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>37</v>
+      </c>
+      <c r="R309" t="n">
+        <v>63</v>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr"/>
+      <c r="U309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Instituto Cordoba</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>1</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1</v>
+      </c>
+      <c r="F310" t="n">
+        <v>1374121</v>
+      </c>
+      <c r="G310" t="n">
+        <v>3</v>
+      </c>
+      <c r="H310" t="n">
+        <v>4</v>
+      </c>
+      <c r="I310" t="n">
+        <v>2</v>
+      </c>
+      <c r="J310" t="n">
+        <v>4</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>1</v>
+      </c>
+      <c r="N310" t="n">
+        <v>0</v>
+      </c>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>48</v>
+      </c>
+      <c r="R310" t="n">
+        <v>52</v>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr"/>
+      <c r="U310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Argentinos JRS</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>1</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1374114</v>
+      </c>
+      <c r="G311" t="n">
+        <v>2</v>
+      </c>
+      <c r="H311" t="n">
+        <v>6</v>
+      </c>
+      <c r="I311" t="n">
+        <v>3</v>
+      </c>
+      <c r="J311" t="n">
+        <v>2</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>1</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0</v>
+      </c>
+      <c r="O311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>60</v>
+      </c>
+      <c r="R311" t="n">
+        <v>40</v>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr"/>
+      <c r="U311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Defensa Y Justicia</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1374122</v>
+      </c>
+      <c r="G312" t="n">
+        <v>6</v>
+      </c>
+      <c r="H312" t="n">
+        <v>3</v>
+      </c>
+      <c r="I312" t="n">
+        <v>3</v>
+      </c>
+      <c r="J312" t="n">
+        <v>2</v>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>0</v>
+      </c>
+      <c r="O312" t="n">
+        <v>1</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>79</v>
+      </c>
+      <c r="R312" t="n">
+        <v>21</v>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr"/>
+      <c r="U312" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
